--- a/Banco Central/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
+++ b/Banco Central/1/8/Indicadores de producción y ventas 2003 a 2021 - Trimestral.xlsx
@@ -3430,8 +3430,29 @@
       <c r="A75" t="s">
         <v>90</v>
       </c>
+      <c r="B75">
+        <v>100.7</v>
+      </c>
+      <c r="C75">
+        <v>97.2</v>
+      </c>
+      <c r="D75">
+        <v>102.4</v>
+      </c>
+      <c r="E75">
+        <v>108.5</v>
+      </c>
       <c r="J75">
         <v>20182.3</v>
+      </c>
+      <c r="K75">
+        <v>130.1</v>
+      </c>
+      <c r="L75">
+        <v>116.5</v>
+      </c>
+      <c r="M75">
+        <v>187.9</v>
       </c>
       <c r="R75">
         <v>96870</v>
